--- a/Adobe-Patch-Tuesday-Jul-2025.xlsx
+++ b/Adobe-Patch-Tuesday-Jul-2025.xlsx
@@ -444,7 +444,7 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Publicly Disclosed</t>
+          <t>Public PoC</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
